--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RPA\MY Project\Client Security Hash\CalculateClientSecurityHash _Part1\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722DFD27-ACA4-48FB-9A05-D9EBE242A34B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2F653A-B1B5-4889-911B-8F5838C47F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -152,9 +152,6 @@
     <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
   </si>
   <si>
-    <t>REF_Generate Yearly Report Dispatcher</t>
-  </si>
-  <si>
     <t>System1_URL</t>
   </si>
   <si>
@@ -180,6 +177,9 @@
   </si>
   <si>
     <t>WI5</t>
+  </si>
+  <si>
+    <t>REF_Generate Yearly Report part 1</t>
   </si>
 </sst>
 </file>
@@ -567,7 +567,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -614,7 +614,7 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
@@ -636,7 +636,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>22</v>
@@ -645,35 +645,35 @@
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
         <v>48</v>
-      </c>
-      <c r="B11" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
